--- a/output.xlsx
+++ b/output.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="اطلاعات کلی" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="کاربرد ها" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ویژگی" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="معرفی" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="تفاوت" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="اطلاعات کلی" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="کاربرد ها" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ویژگی" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="معرفی" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="تفاوت" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="اطلاعات کلی"/>
@@ -199,7 +199,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,12 +210,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -262,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,12 +274,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -603,7 +591,7 @@
     <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -654,7 +642,7 @@
       <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
@@ -678,7 +666,7 @@
       <c r="G3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
@@ -702,7 +690,7 @@
       <c r="G4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
@@ -882,7 +870,7 @@
       <c r="G11" s="3">
         <v>10</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="4" t="s">
@@ -906,7 +894,7 @@
       <c r="G12" s="3">
         <v>11</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="4" t="s">
@@ -930,7 +918,7 @@
       <c r="G13" s="3">
         <v>12</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="4" t="s">
@@ -954,7 +942,7 @@
       <c r="G14" s="3">
         <v>13</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="4" t="s">
@@ -978,7 +966,7 @@
       <c r="G15" s="3">
         <v>14</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -992,7 +980,7 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1178,7 +1166,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1186,7 +1174,7 @@
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1194,7 +1182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1202,7 +1190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1210,7 +1198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1218,7 +1206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1226,7 +1214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1394,7 +1382,7 @@
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1402,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
